--- a/01 DOCUEMENTOS/CAMIONETAS   ARTUROS  2023.xlsx
+++ b/01 DOCUEMENTOS/CAMIONETAS   ARTUROS  2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t xml:space="preserve">RELACION DE UNIDADES Y ASIGNACION </t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t xml:space="preserve">VALENTE </t>
+  </si>
+  <si>
+    <t>8-MARZO-2023   3,260 KM                 ( 20,000)</t>
   </si>
 </sst>
 </file>
@@ -814,15 +817,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1055,6 +1052,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1339,721 +1345,723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="21.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>2012</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>2010</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>2020</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>2011</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>2018</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>2019</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="37" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>2015</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>2015</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>2017</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>2017</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>2017</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="44">
         <v>2006</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="49" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="48">
         <v>2018</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>2015</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="53"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:9" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>2015</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="53"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>2018</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>2022</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>2022</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="37" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>2022</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="86" t="s">
+      <c r="F21" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="35" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13">
+      <c r="I21" s="88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>2022</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="86" t="s">
+      <c r="F22" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="35" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="38.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="35" t="s">
+      <c r="G23" s="38"/>
+      <c r="H23" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="61"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="37" t="s">
+      <c r="G24" s="38"/>
+      <c r="H24" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="67" t="s">
+      <c r="G25" s="38"/>
+      <c r="H25" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="68"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="73" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="75" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="75" t="s">
+      <c r="G28" s="38"/>
+      <c r="H28" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="61"/>
+      <c r="I28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01 DOCUEMENTOS/CAMIONETAS   ARTUROS  2023.xlsx
+++ b/01 DOCUEMENTOS/CAMIONETAS   ARTUROS  2023.xlsx
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -817,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,21 +1060,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1345,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1365,14 +1377,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -1499,7 +1511,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1859,7 +1871,7 @@
       <c r="H20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
@@ -1884,7 +1896,7 @@
       <c r="H21" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="86" t="s">
         <v>115</v>
       </c>
     </row>

--- a/01 DOCUEMENTOS/CAMIONETAS   ARTUROS  2023.xlsx
+++ b/01 DOCUEMENTOS/CAMIONETAS   ARTUROS  2023.xlsx
@@ -384,7 +384,7 @@
     <t xml:space="preserve">VALENTE </t>
   </si>
   <si>
-    <t>8-MARZO-2023   3,260 KM                 ( 20,000)</t>
+    <t>8-MARZO-2023   7,415 KM                 ( 20,000)</t>
   </si>
 </sst>
 </file>
@@ -1063,13 +1063,13 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1377,14 +1377,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -1871,7 +1871,7 @@
       <c r="H20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="89"/>
+      <c r="I20" s="87"/>
     </row>
     <row r="21" spans="1:9" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
